--- a/data/2020-02-04/Senior Cubers Worldwide - Weekly Competition - 2020-02-04.xlsx
+++ b/data/2020-02-04/Senior Cubers Worldwide - Weekly Competition - 2020-02-04.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADC7A6E-40C8-45B5-8CC2-E2422D7A87CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C843911C-3247-4A39-9547-FCD6DCF92399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>Andy Nicholls</t>
-  </si>
-  <si>
-    <t>1:08.74</t>
   </si>
   <si>
     <t>🥈</t>
@@ -286,12 +283,6 @@
     <t>2:38.28</t>
   </si>
   <si>
-    <t>2:24.0</t>
-  </si>
-  <si>
-    <t>2:55.0</t>
-  </si>
-  <si>
     <t>2:34.26</t>
   </si>
   <si>
@@ -323,9 +314,6 @@
   </si>
   <si>
     <t>Jo Cocco</t>
-  </si>
-  <si>
-    <t>4:41.00</t>
   </si>
   <si>
     <t>4:59.33</t>
@@ -409,16 +397,10 @@
     <t>3:50.62</t>
   </si>
   <si>
-    <t>3:54.51</t>
-  </si>
-  <si>
     <t>3:13.21</t>
   </si>
   <si>
     <t>1:04.01</t>
-  </si>
-  <si>
-    <t>3:38.78</t>
   </si>
   <si>
     <t>🥉 🔥</t>
@@ -441,12 +423,30 @@
   <si>
     <t>Daniel Smith</t>
   </si>
+  <si>
+    <t>1:07.86</t>
+  </si>
+  <si>
+    <t>2:24.93</t>
+  </si>
+  <si>
+    <t>2:55.65</t>
+  </si>
+  <si>
+    <t>3:52.51</t>
+  </si>
+  <si>
+    <t>3:38.78</t>
+  </si>
+  <si>
+    <t>4:41.35</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -534,6 +534,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -552,10 +558,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -661,8 +668,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -882,7 +894,7 @@
   <dimension ref="A1:L1016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -939,7 +951,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>9</v>
@@ -1009,7 +1021,7 @@
         <v>15.65</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F5" s="17">
         <v>12.1</v>
@@ -1060,7 +1072,7 @@
         <v>17.010000000000002</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
@@ -1077,7 +1089,7 @@
         <v>18.489999999999998</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="17">
         <v>19.52</v>
@@ -1095,7 +1107,7 @@
         <v>24.6</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75">
@@ -1103,7 +1115,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>21</v>
@@ -1112,7 +1124,7 @@
         <v>19.2</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F8" s="21">
         <v>18.489999999999998</v>
@@ -1130,7 +1142,7 @@
         <v>17.41</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -1138,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>21</v>
@@ -1163,7 +1175,7 @@
         <v>22.86</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -1171,7 +1183,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>21</v>
@@ -1180,7 +1192,7 @@
         <v>21.68</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" s="17">
         <v>21.02</v>
@@ -1198,7 +1210,7 @@
         <v>21.42</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -1206,7 +1218,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>16</v>
@@ -1231,7 +1243,7 @@
         <v>20.170000000000002</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -1239,7 +1251,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>16</v>
@@ -1248,7 +1260,7 @@
         <v>22.72</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F12" s="24">
         <v>17.3</v>
@@ -1266,7 +1278,7 @@
         <v>31.93</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
@@ -1274,7 +1286,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>21</v>
@@ -1283,7 +1295,7 @@
         <v>23.58</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="17">
         <v>23.38</v>
@@ -1301,7 +1313,7 @@
         <v>25.9</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
@@ -1309,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>16</v>
@@ -1334,7 +1346,7 @@
         <v>36.89</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
@@ -1342,7 +1354,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>21</v>
@@ -1358,7 +1370,7 @@
         <v>24.74</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I15" s="17">
         <v>22.48</v>
@@ -1367,7 +1379,7 @@
         <v>27.14</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">
@@ -1375,7 +1387,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>16</v>
@@ -1400,7 +1412,7 @@
         <v>27.95</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="12.75">
@@ -1408,7 +1420,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>16</v>
@@ -1417,7 +1429,7 @@
         <v>30.08</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F17" s="17">
         <v>25.89</v>
@@ -1435,7 +1447,7 @@
         <v>30.97</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="12.75">
@@ -1443,16 +1455,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="17">
-        <v>32.86</v>
+        <v>32.17</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F18" s="17">
         <v>23.34</v>
@@ -1470,7 +1482,7 @@
         <v>43.56</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="12.75">
@@ -1478,10 +1490,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="17">
         <v>34.15</v>
@@ -1503,7 +1515,7 @@
         <v>30.56</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="12.75">
@@ -1511,10 +1523,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="17">
         <f>(SUM(F20:J20)-MAX(F20:J20)-MIN(F20:J20))/3</f>
@@ -1537,10 +1549,10 @@
         <v>40.094999999999999</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.75">
@@ -1548,7 +1560,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>21</v>
@@ -1557,7 +1569,7 @@
         <v>42.93</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F21" s="17">
         <v>35.76</v>
@@ -1575,7 +1587,7 @@
         <v>42.46</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="12.75">
@@ -1583,7 +1595,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>21</v>
@@ -1608,7 +1620,7 @@
         <v>41.63</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="12.75">
@@ -1616,7 +1628,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>21</v>
@@ -1625,13 +1637,13 @@
         <v>50.72</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" s="17">
         <v>53.96</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H23" s="17">
         <v>44.3</v>
@@ -1643,7 +1655,7 @@
         <v>44.56</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="12.75">
@@ -1651,7 +1663,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>21</v>
@@ -1660,10 +1672,10 @@
         <v>60.84</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G24" s="17">
         <v>58.8</v>
@@ -1675,10 +1687,10 @@
         <v>58.48</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="12.75">
@@ -8731,7 +8743,7 @@
   <dimension ref="A1:L1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H18" sqref="F18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -8889,29 +8901,29 @@
       <c r="C6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="F6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="H6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="I6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="J6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="K6" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12.75">
@@ -8919,34 +8931,34 @@
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="G7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="H7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="I7" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="J7" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="L7" s="22"/>
     </row>
@@ -8955,32 +8967,32 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="H8" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="I8" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="J8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="L8" s="22"/>
     </row>
@@ -8989,32 +9001,32 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="H9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="I9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="12.75">
@@ -9022,32 +9034,32 @@
         <v>7</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="H10" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="I10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="18" t="s">
         <v>69</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="12.75">
@@ -9055,32 +9067,32 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="37" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="12.75">
@@ -9088,32 +9100,32 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="H12" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="I12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.75">
@@ -9121,35 +9133,35 @@
         <v>10</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="21" t="s">
+      <c r="I13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="18" t="s">
+      <c r="L13" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="12.75">
@@ -9157,32 +9169,32 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="36" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>93</v>
+        <v>54</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.75">
@@ -9190,32 +9202,32 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>98</v>
+      <c r="D15" s="37" t="s">
+        <v>136</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>102</v>
+        <v>54</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="12.75">

--- a/data/2020-02-04/Senior Cubers Worldwide - Weekly Competition - 2020-02-04.xlsx
+++ b/data/2020-02-04/Senior Cubers Worldwide - Weekly Competition - 2020-02-04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C843911C-3247-4A39-9547-FCD6DCF92399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F731F270-F987-465F-BF5C-2FBA29CF10D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -277,9 +277,6 @@
     <t>https://www.facebook.com/groups/1604105099735401/permalink/2135450339934205/</t>
   </si>
   <si>
-    <t>Deansie Brady</t>
-  </si>
-  <si>
     <t>2:38.28</t>
   </si>
   <si>
@@ -440,6 +437,9 @@
   </si>
   <si>
     <t>4:41.35</t>
+  </si>
+  <si>
+    <t>Jamie Brady (Deansie)</t>
   </si>
 </sst>
 </file>
@@ -893,8 +893,8 @@
   </sheetPr>
   <dimension ref="A1:L1016"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -951,7 +951,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>9</v>
@@ -1021,7 +1021,7 @@
         <v>15.65</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="17">
         <v>12.1</v>
@@ -1124,7 +1124,7 @@
         <v>19.2</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="21">
         <v>18.489999999999998</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>21</v>
@@ -1260,7 +1260,7 @@
         <v>22.72</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12" s="24">
         <v>17.3</v>
@@ -1321,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>36.89</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
@@ -1354,7 +1354,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>21</v>
@@ -1370,7 +1370,7 @@
         <v>24.74</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I15" s="17">
         <v>22.48</v>
@@ -1379,15 +1379,15 @@
         <v>27.14</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">
       <c r="A16" s="14">
         <v>13</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>82</v>
+      <c r="B16" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>16</v>
@@ -1412,7 +1412,7 @@
         <v>27.95</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="12.75">
@@ -1420,7 +1420,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>16</v>
@@ -1429,7 +1429,7 @@
         <v>30.08</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" s="17">
         <v>25.89</v>
@@ -1447,7 +1447,7 @@
         <v>30.97</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="12.75">
@@ -1455,7 +1455,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>21</v>
@@ -1464,7 +1464,7 @@
         <v>32.17</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18" s="17">
         <v>23.34</v>
@@ -1482,7 +1482,7 @@
         <v>43.56</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="12.75">
@@ -1490,7 +1490,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>64</v>
@@ -1515,7 +1515,7 @@
         <v>30.56</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="12.75">
@@ -1523,7 +1523,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>64</v>
@@ -1549,10 +1549,10 @@
         <v>40.094999999999999</v>
       </c>
       <c r="K20" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="22" t="s">
         <v>106</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.75">
@@ -1560,7 +1560,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>21</v>
@@ -1569,7 +1569,7 @@
         <v>42.93</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F21" s="17">
         <v>35.76</v>
@@ -1587,7 +1587,7 @@
         <v>42.46</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="12.75">
@@ -1595,7 +1595,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>21</v>
@@ -1620,7 +1620,7 @@
         <v>41.63</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="12.75">
@@ -1628,7 +1628,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>21</v>
@@ -1643,7 +1643,7 @@
         <v>53.96</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H23" s="17">
         <v>44.3</v>
@@ -1655,7 +1655,7 @@
         <v>44.56</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="12.75">
@@ -1663,7 +1663,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>21</v>
@@ -1672,10 +1672,10 @@
         <v>60.84</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G24" s="17">
         <v>58.8</v>
@@ -1687,10 +1687,10 @@
         <v>58.48</v>
       </c>
       <c r="J24" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="K24" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="12.75">
@@ -8742,8 +8742,8 @@
   </sheetPr>
   <dimension ref="A1:L1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="F18:H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -8902,7 +8902,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>31</v>
@@ -8955,7 +8955,7 @@
         <v>45</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>46</v>
@@ -9034,7 +9034,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>64</v>
@@ -9073,17 +9073,17 @@
         <v>16</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="37" t="s">
-        <v>118</v>
-      </c>
       <c r="H11" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>54</v>
@@ -9133,23 +9133,23 @@
         <v>10</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="42" t="s">
-        <v>133</v>
-      </c>
       <c r="H13" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>54</v>
@@ -9158,10 +9158,10 @@
         <v>54</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="12.75">
@@ -9169,23 +9169,23 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="36" t="s">
         <v>121</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>122</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>54</v>
@@ -9194,7 +9194,7 @@
         <v>54</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.75">
@@ -9202,23 +9202,23 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="H15" s="21" t="s">
         <v>96</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>97</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>54</v>
@@ -9227,7 +9227,7 @@
         <v>54</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="12.75">
@@ -16260,5 +16260,6 @@
     <hyperlink ref="K15" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
--- a/data/2020-02-04/Senior Cubers Worldwide - Weekly Competition - 2020-02-04.xlsx
+++ b/data/2020-02-04/Senior Cubers Worldwide - Weekly Competition - 2020-02-04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F731F270-F987-465F-BF5C-2FBA29CF10D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4AD26C-87CB-408E-910A-12E61D7780CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -894,7 +894,7 @@
   <dimension ref="A1:L1016"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1598,7 +1598,7 @@
         <v>109</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="D22" s="17">
         <v>44.11</v>

--- a/data/2020-02-04/Senior Cubers Worldwide - Weekly Competition - 2020-02-04.xlsx
+++ b/data/2020-02-04/Senior Cubers Worldwide - Weekly Competition - 2020-02-04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4AD26C-87CB-408E-910A-12E61D7780CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8683ED8F-4055-433D-8197-45D4B9095555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>1:26.77</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>https://www.facebook.com/pete.lee.9003/videos/2505517469558727/</t>
@@ -440,6 +437,9 @@
   </si>
   <si>
     <t>Jamie Brady (Deansie)</t>
+  </si>
+  <si>
+    <t>DNS</t>
   </si>
 </sst>
 </file>
@@ -893,7 +893,7 @@
   </sheetPr>
   <dimension ref="A1:L1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -951,7 +951,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>9</v>
@@ -1021,7 +1021,7 @@
         <v>15.65</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" s="17">
         <v>12.1</v>
@@ -1124,7 +1124,7 @@
         <v>19.2</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" s="21">
         <v>18.489999999999998</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>21</v>
@@ -1175,7 +1175,7 @@
         <v>22.86</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -1183,7 +1183,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>21</v>
@@ -1192,7 +1192,7 @@
         <v>21.68</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="17">
         <v>21.02</v>
@@ -1210,7 +1210,7 @@
         <v>21.42</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -1243,7 +1243,7 @@
         <v>20.170000000000002</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -1251,7 +1251,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>16</v>
@@ -1260,7 +1260,7 @@
         <v>22.72</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F12" s="24">
         <v>17.3</v>
@@ -1278,7 +1278,7 @@
         <v>31.93</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
@@ -1286,7 +1286,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>21</v>
@@ -1295,7 +1295,7 @@
         <v>23.58</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="17">
         <v>23.38</v>
@@ -1313,7 +1313,7 @@
         <v>25.9</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
@@ -1321,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>36.89</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
@@ -1354,7 +1354,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>21</v>
@@ -1370,7 +1370,7 @@
         <v>24.74</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I15" s="17">
         <v>22.48</v>
@@ -1379,7 +1379,7 @@
         <v>27.14</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">
@@ -1387,7 +1387,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>16</v>
@@ -1412,7 +1412,7 @@
         <v>27.95</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="12.75">
@@ -1420,7 +1420,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>16</v>
@@ -1429,7 +1429,7 @@
         <v>30.08</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F17" s="17">
         <v>25.89</v>
@@ -1447,7 +1447,7 @@
         <v>30.97</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="12.75">
@@ -1455,7 +1455,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>21</v>
@@ -1464,7 +1464,7 @@
         <v>32.17</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F18" s="17">
         <v>23.34</v>
@@ -1482,7 +1482,7 @@
         <v>43.56</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="12.75">
@@ -1490,10 +1490,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="17">
         <v>34.15</v>
@@ -1515,7 +1515,7 @@
         <v>30.56</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="12.75">
@@ -1523,10 +1523,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="17">
         <f>(SUM(F20:J20)-MAX(F20:J20)-MIN(F20:J20))/3</f>
@@ -1549,10 +1549,10 @@
         <v>40.094999999999999</v>
       </c>
       <c r="K20" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="22" t="s">
         <v>105</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.75">
@@ -1560,7 +1560,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>21</v>
@@ -1569,7 +1569,7 @@
         <v>42.93</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21" s="17">
         <v>35.76</v>
@@ -1587,7 +1587,7 @@
         <v>42.46</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="12.75">
@@ -1595,10 +1595,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="17">
         <v>44.11</v>
@@ -1620,7 +1620,7 @@
         <v>41.63</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="12.75">
@@ -1628,7 +1628,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>21</v>
@@ -1637,13 +1637,13 @@
         <v>50.72</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" s="17">
         <v>53.96</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H23" s="17">
         <v>44.3</v>
@@ -1655,7 +1655,7 @@
         <v>44.56</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="12.75">
@@ -1663,7 +1663,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>21</v>
@@ -1672,10 +1672,10 @@
         <v>60.84</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G24" s="17">
         <v>58.8</v>
@@ -1687,10 +1687,10 @@
         <v>58.48</v>
       </c>
       <c r="J24" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="12.75">
@@ -8742,8 +8742,8 @@
   </sheetPr>
   <dimension ref="A1:L1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -8902,7 +8902,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>31</v>
@@ -8955,7 +8955,7 @@
         <v>45</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>46</v>
@@ -8986,13 +8986,13 @@
         <v>53</v>
       </c>
       <c r="I8" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="L8" s="22"/>
     </row>
@@ -9001,32 +9001,32 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="H9" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="I9" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="12.75">
@@ -9034,32 +9034,32 @@
         <v>7</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>65</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="H10" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="I10" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="12.75">
@@ -9067,32 +9067,32 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="37" t="s">
-        <v>117</v>
-      </c>
       <c r="H11" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="12.75">
@@ -9100,32 +9100,32 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="H12" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="I12" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.75">
@@ -9133,35 +9133,35 @@
         <v>10</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="42" t="s">
-        <v>132</v>
-      </c>
       <c r="H13" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I13" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="41" t="s">
-        <v>84</v>
-      </c>
       <c r="L13" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="12.75">
@@ -9169,32 +9169,32 @@
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>121</v>
-      </c>
       <c r="I14" s="17" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.75">
@@ -9202,32 +9202,32 @@
         <v>12</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="H15" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="I15" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" s="41" t="s">
         <v>96</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="41" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="12.75">
